--- a/extracted_data_wavenumber_cutoffs/hyperparameter_tuning.xlsx
+++ b/extracted_data_wavenumber_cutoffs/hyperparameter_tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielvanhoesen/Desktop/Personal/Raman_Paper/raman_prediction/extracted_data_wavenumber_cutoffs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9A6DB3-D8F0-604E-B90A-89D39C89E3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE62414F-CD6F-6643-A972-AF57C496F1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="2540" windowWidth="28040" windowHeight="17440" xr2:uid="{E7D3F69E-EA37-694F-B736-BA4798C4B836}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{E7D3F69E-EA37-694F-B736-BA4798C4B836}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="14">
   <si>
     <t>LR</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>FeedForwardNN</t>
+  </si>
+  <si>
+    <t>FeedForwardNN_CNN</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13167E06-2150-EE44-8637-C9AF958B724F}">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,33 +483,33 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.626E-3</v>
+        <v>6.1079999999999997E-3</v>
       </c>
       <c r="B2">
-        <v>7.9150000000000002E-3</v>
+        <v>4.3880000000000004E-3</v>
       </c>
       <c r="C2">
         <v>1E-3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1.0442999999999999E-2</v>
+        <v>6.1469999999999997E-3</v>
       </c>
       <c r="B3">
-        <v>1.0153000000000001E-2</v>
+        <v>4.1370000000000001E-3</v>
       </c>
       <c r="C3">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -514,318 +518,318 @@
         <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1.1037E-2</v>
+        <v>6.202E-3</v>
       </c>
       <c r="B4">
-        <v>1.0744999999999999E-2</v>
+        <v>4.3920000000000001E-3</v>
       </c>
       <c r="C4">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1.1454000000000001E-2</v>
+        <v>6.2300000000000003E-3</v>
       </c>
       <c r="B5">
-        <v>1.1206000000000001E-2</v>
+        <v>4.2379999999999996E-3</v>
       </c>
       <c r="C5">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1.46E-2</v>
+        <v>6.2570000000000004E-3</v>
       </c>
       <c r="B6">
-        <v>1.4817E-2</v>
+        <v>4.2529999999999998E-3</v>
       </c>
       <c r="C6">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1.4609E-2</v>
+        <v>6.2589999999999998E-3</v>
       </c>
       <c r="B7">
-        <v>1.4821000000000001E-2</v>
+        <v>4.6519999999999999E-3</v>
       </c>
       <c r="C7">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.4624E-2</v>
+        <v>6.2690000000000003E-3</v>
       </c>
       <c r="B8">
-        <v>1.4841E-2</v>
+        <v>4.5120000000000004E-3</v>
       </c>
       <c r="C8">
         <v>1E-3</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.4642000000000001E-2</v>
+        <v>6.2760000000000003E-3</v>
       </c>
       <c r="B9">
-        <v>1.4865E-2</v>
+        <v>4.6100000000000004E-3</v>
       </c>
       <c r="C9">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1.4643E-2</v>
+        <v>6.2789999999999999E-3</v>
       </c>
       <c r="B10">
-        <v>1.4860999999999999E-2</v>
+        <v>4.4470000000000004E-3</v>
       </c>
       <c r="C10">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.4674E-2</v>
+        <v>6.2820000000000003E-3</v>
       </c>
       <c r="B11">
-        <v>1.4898E-2</v>
+        <v>4.3489999999999996E-3</v>
       </c>
       <c r="C11">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1.4676E-2</v>
+        <v>6.3090000000000004E-3</v>
       </c>
       <c r="B12">
-        <v>1.4897000000000001E-2</v>
+        <v>4.5259999999999996E-3</v>
       </c>
       <c r="C12">
         <v>1E-3</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1.5678999999999998E-2</v>
+        <v>6.3119999999999999E-3</v>
       </c>
       <c r="B13">
-        <v>1.5883999999999999E-2</v>
+        <v>4.3E-3</v>
       </c>
       <c r="C13">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1.6760000000000001E-2</v>
+        <v>6.3400000000000001E-3</v>
       </c>
       <c r="B14">
-        <v>1.6945000000000002E-2</v>
+        <v>4.4860000000000004E-3</v>
       </c>
       <c r="C14">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1.6761000000000002E-2</v>
+        <v>6.3600000000000002E-3</v>
       </c>
       <c r="B15">
-        <v>1.694E-2</v>
+        <v>4.731E-3</v>
       </c>
       <c r="C15">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1.6761999999999999E-2</v>
+        <v>6.3759999999999997E-3</v>
       </c>
       <c r="B16">
-        <v>1.695E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C16">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1.6763E-2</v>
+        <v>6.3790000000000001E-3</v>
       </c>
       <c r="B17">
-        <v>1.6947E-2</v>
+        <v>4.7699999999999999E-3</v>
       </c>
       <c r="C17">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1.6763E-2</v>
+        <v>6.3829999999999998E-3</v>
       </c>
       <c r="B18">
-        <v>1.6947E-2</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="C18">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1.6764000000000001E-2</v>
+        <v>6.3879999999999996E-3</v>
       </c>
       <c r="B19">
-        <v>1.6945999999999999E-2</v>
+        <v>4.6610000000000002E-3</v>
       </c>
       <c r="C19">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -834,55 +838,55 @@
         <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1.6764999999999999E-2</v>
+        <v>6.4130000000000003E-3</v>
       </c>
       <c r="B20">
-        <v>1.6947E-2</v>
+        <v>4.9899999999999996E-3</v>
       </c>
       <c r="C20">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.6764999999999999E-2</v>
+        <v>6.4460000000000003E-3</v>
       </c>
       <c r="B21">
-        <v>1.6951000000000001E-2</v>
+        <v>4.9849999999999998E-3</v>
       </c>
       <c r="C21">
         <v>1E-3</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.6766E-2</v>
+        <v>6.4580000000000002E-3</v>
       </c>
       <c r="B22">
-        <v>1.6948999999999999E-2</v>
+        <v>4.986E-3</v>
       </c>
       <c r="C22">
         <v>1E-3</v>
@@ -891,21 +895,21 @@
         <v>4</v>
       </c>
       <c r="E22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1.6767000000000001E-2</v>
+        <v>6.4850000000000003E-3</v>
       </c>
       <c r="B23">
-        <v>1.6945000000000002E-2</v>
+        <v>4.8110000000000002E-3</v>
       </c>
       <c r="C23">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -914,155 +918,155 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1.6768000000000002E-2</v>
+        <v>6.5139999999999998E-3</v>
       </c>
       <c r="B24">
-        <v>1.6947E-2</v>
+        <v>4.8520000000000004E-3</v>
       </c>
       <c r="C24">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1.6768000000000002E-2</v>
+        <v>6.5199999999999998E-3</v>
       </c>
       <c r="B25">
-        <v>1.6943E-2</v>
+        <v>4.7470000000000004E-3</v>
       </c>
       <c r="C25">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>32</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1.6768000000000002E-2</v>
+        <v>6.535E-3</v>
       </c>
       <c r="B26">
-        <v>1.6945999999999999E-2</v>
+        <v>4.7949999999999998E-3</v>
       </c>
       <c r="C26">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1.6768000000000002E-2</v>
+        <v>6.5669999999999999E-3</v>
       </c>
       <c r="B27">
-        <v>1.6944000000000001E-2</v>
+        <v>4.9940000000000002E-3</v>
       </c>
       <c r="C27">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1.6768000000000002E-2</v>
+        <v>6.5760000000000002E-3</v>
       </c>
       <c r="B28">
-        <v>1.6945999999999999E-2</v>
+        <v>5.2360000000000002E-3</v>
       </c>
       <c r="C28">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1.6768999999999999E-2</v>
+        <v>6.5839999999999996E-3</v>
       </c>
       <c r="B29">
-        <v>1.694E-2</v>
+        <v>5.0460000000000001E-3</v>
       </c>
       <c r="C29">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1.6771000000000001E-2</v>
+        <v>6.5849999999999997E-3</v>
       </c>
       <c r="B30">
-        <v>1.6941000000000001E-2</v>
+        <v>4.829E-3</v>
       </c>
       <c r="C30">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1.6773E-2</v>
+        <v>6.5989999999999998E-3</v>
       </c>
       <c r="B31">
-        <v>1.6951000000000001E-2</v>
+        <v>5.1440000000000001E-3</v>
       </c>
       <c r="C31">
         <v>3.0000000000000001E-3</v>
@@ -1071,78 +1075,78 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1.6773E-2</v>
+        <v>6.5989999999999998E-3</v>
       </c>
       <c r="B32">
-        <v>1.6945000000000002E-2</v>
+        <v>5.0530000000000002E-3</v>
       </c>
       <c r="C32">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1.6773E-2</v>
+        <v>6.659E-3</v>
       </c>
       <c r="B33">
-        <v>1.6945999999999999E-2</v>
+        <v>5.2139999999999999E-3</v>
       </c>
       <c r="C33">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1.6774000000000001E-2</v>
+        <v>6.6680000000000003E-3</v>
       </c>
       <c r="B34">
-        <v>1.6954E-2</v>
+        <v>4.9399999999999999E-3</v>
       </c>
       <c r="C34">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1.6774000000000001E-2</v>
+        <v>6.6810000000000003E-3</v>
       </c>
       <c r="B35">
-        <v>1.6948000000000001E-2</v>
+        <v>4.712E-3</v>
       </c>
       <c r="C35">
         <v>1E-3</v>
@@ -1151,21 +1155,21 @@
         <v>4</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1.6775000000000002E-2</v>
+        <v>6.685E-3</v>
       </c>
       <c r="B36">
-        <v>1.6945999999999999E-2</v>
+        <v>4.62E-3</v>
       </c>
       <c r="C36">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
@@ -1174,35 +1178,35 @@
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1.6778000000000001E-2</v>
+        <v>6.7010000000000004E-3</v>
       </c>
       <c r="B37">
-        <v>1.694E-2</v>
+        <v>5.6829999999999997E-3</v>
       </c>
       <c r="C37">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>64</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>6.6680000000000003E-3</v>
+        <v>6.7679999999999997E-3</v>
       </c>
       <c r="B38">
-        <v>4.9399999999999999E-3</v>
+        <v>5.457E-3</v>
       </c>
       <c r="C38">
         <v>1E-3</v>
@@ -1211,70 +1215,70 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>6.6810000000000003E-3</v>
+        <v>6.7790000000000003E-3</v>
       </c>
       <c r="B39">
-        <v>4.712E-3</v>
+        <v>5.0679999999999996E-3</v>
       </c>
       <c r="C39">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
       </c>
       <c r="E39">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>6.685E-3</v>
+        <v>6.7809999999999997E-3</v>
       </c>
       <c r="B40">
-        <v>4.62E-3</v>
+        <v>5.7019999999999996E-3</v>
       </c>
       <c r="C40">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D40" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>6.7010000000000004E-3</v>
+        <v>6.7930000000000004E-3</v>
       </c>
       <c r="B41">
-        <v>5.6829999999999997E-3</v>
+        <v>5.6309999999999997E-3</v>
       </c>
       <c r="C41">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1299,10 +1303,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>7.0479999999999996E-3</v>
+        <v>6.8430000000000001E-3</v>
       </c>
       <c r="B43">
-        <v>5.5189999999999996E-3</v>
+        <v>5.2430000000000003E-3</v>
       </c>
       <c r="C43">
         <v>1E-3</v>
@@ -1311,38 +1315,38 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>7.1060000000000003E-3</v>
+        <v>6.8669999999999998E-3</v>
       </c>
       <c r="B44">
-        <v>5.6639999999999998E-3</v>
+        <v>5.7369999999999999E-3</v>
       </c>
       <c r="C44">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>7.1739999999999998E-3</v>
+        <v>6.8869999999999999E-3</v>
       </c>
       <c r="B45">
-        <v>6.0359999999999997E-3</v>
+        <v>5.679E-3</v>
       </c>
       <c r="C45">
         <v>2.9999999999999997E-4</v>
@@ -1354,35 +1358,35 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>7.2439999999999996E-3</v>
+        <v>6.9430000000000004E-3</v>
       </c>
       <c r="B46">
-        <v>5.5840000000000004E-3</v>
+        <v>5.4019999999999997E-3</v>
       </c>
       <c r="C46">
         <v>1E-3</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>7.2500000000000004E-3</v>
+        <v>7.0479999999999996E-3</v>
       </c>
       <c r="B47">
-        <v>6.1659999999999996E-3</v>
+        <v>5.5189999999999996E-3</v>
       </c>
       <c r="C47">
         <v>1E-3</v>
@@ -1391,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -1399,39 +1403,39 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>7.4149999999999997E-3</v>
+        <v>7.0609999999999996E-3</v>
       </c>
       <c r="B48">
-        <v>6.149E-3</v>
+        <v>5.7819999999999998E-3</v>
       </c>
       <c r="C48">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>7.5649999999999997E-3</v>
+        <v>7.1060000000000003E-3</v>
       </c>
       <c r="B49">
-        <v>6.8719999999999996E-3</v>
+        <v>5.6639999999999998E-3</v>
       </c>
       <c r="C49">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
@@ -1439,10 +1443,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>7.7070000000000003E-3</v>
+        <v>7.143E-3</v>
       </c>
       <c r="B50">
-        <v>6.8110000000000002E-3</v>
+        <v>6.3010000000000002E-3</v>
       </c>
       <c r="C50">
         <v>2.9999999999999997E-4</v>
@@ -1451,18 +1455,18 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>7.8300000000000002E-3</v>
+        <v>7.1630000000000001E-3</v>
       </c>
       <c r="B51">
-        <v>6.8139999999999997E-3</v>
+        <v>6.156E-3</v>
       </c>
       <c r="C51">
         <v>2.9999999999999997E-4</v>
@@ -1474,24 +1478,24 @@
         <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>7.8530000000000006E-3</v>
+        <v>7.1739999999999998E-3</v>
       </c>
       <c r="B52">
-        <v>6.9760000000000004E-3</v>
+        <v>6.0359999999999997E-3</v>
       </c>
       <c r="C52">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
@@ -1499,19 +1503,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>7.9749999999999995E-3</v>
+        <v>7.2439999999999996E-3</v>
       </c>
       <c r="B53">
-        <v>7.4289999999999998E-3</v>
+        <v>5.5840000000000004E-3</v>
       </c>
       <c r="C53">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -1519,19 +1523,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>7.9909999999999998E-3</v>
+        <v>7.2500000000000004E-3</v>
       </c>
       <c r="B54">
-        <v>5.4460000000000003E-3</v>
+        <v>6.1659999999999996E-3</v>
       </c>
       <c r="C54">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
@@ -1539,53 +1543,53 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>8.5170000000000003E-3</v>
+        <v>7.2690000000000003E-3</v>
       </c>
       <c r="B55">
-        <v>7.4739999999999997E-3</v>
+        <v>6.3930000000000002E-3</v>
       </c>
       <c r="C55">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>9.4560000000000009E-3</v>
+        <v>7.293E-3</v>
       </c>
       <c r="B56">
-        <v>8.9029999999999995E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="C56">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D56" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>9.8379999999999995E-3</v>
+        <v>7.4149999999999997E-3</v>
       </c>
       <c r="B57">
-        <v>9.2999999999999992E-3</v>
+        <v>6.149E-3</v>
       </c>
       <c r="C57">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
@@ -1599,10 +1603,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>9.8930000000000008E-3</v>
+        <v>7.5649999999999997E-3</v>
       </c>
       <c r="B58">
-        <v>9.3329999999999993E-3</v>
+        <v>6.8719999999999996E-3</v>
       </c>
       <c r="C58">
         <v>2.9999999999999997E-4</v>
@@ -1611,7 +1615,7 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
@@ -1619,76 +1623,76 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1.3369000000000001E-2</v>
+        <v>7.5919999999999998E-3</v>
       </c>
       <c r="B59">
-        <v>1.3594999999999999E-2</v>
+        <v>6.829E-3</v>
       </c>
       <c r="C59">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1.3374E-2</v>
+        <v>7.6E-3</v>
       </c>
       <c r="B60">
-        <v>1.3597E-2</v>
+        <v>6.9439999999999997E-3</v>
       </c>
       <c r="C60">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.3384E-2</v>
+        <v>7.6740000000000003E-3</v>
       </c>
       <c r="B61">
-        <v>1.3599999999999999E-2</v>
+        <v>6.4479999999999997E-3</v>
       </c>
       <c r="C61">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D61" t="s">
         <v>2</v>
       </c>
       <c r="E61">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1.3389E-2</v>
+        <v>7.7070000000000003E-3</v>
       </c>
       <c r="B62">
-        <v>1.3612000000000001E-2</v>
+        <v>6.8110000000000002E-3</v>
       </c>
       <c r="C62">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D62" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>16</v>
@@ -1699,39 +1703,39 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1.3409000000000001E-2</v>
+        <v>7.7099999999999998E-3</v>
       </c>
       <c r="B63">
-        <v>1.3610000000000001E-2</v>
+        <v>6.9719999999999999E-3</v>
       </c>
       <c r="C63">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1.3417999999999999E-2</v>
+        <v>7.8300000000000002E-3</v>
       </c>
       <c r="B64">
-        <v>1.3624000000000001E-2</v>
+        <v>6.8139999999999997E-3</v>
       </c>
       <c r="C64">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
         <v>11</v>
@@ -1739,19 +1743,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1.6031E-2</v>
+        <v>7.8530000000000006E-3</v>
       </c>
       <c r="B65">
-        <v>1.6206999999999999E-2</v>
+        <v>6.9760000000000004E-3</v>
       </c>
       <c r="C65">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
         <v>11</v>
@@ -1759,39 +1763,39 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1.6528999999999999E-2</v>
+        <v>7.8820000000000001E-3</v>
       </c>
       <c r="B66">
-        <v>1.6711E-2</v>
+        <v>6.7889999999999999E-3</v>
       </c>
       <c r="C66">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1.6722999999999998E-2</v>
+        <v>7.9749999999999995E-3</v>
       </c>
       <c r="B67">
-        <v>1.6913000000000001E-2</v>
+        <v>7.4289999999999998E-3</v>
       </c>
       <c r="C67">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F67" t="s">
         <v>11</v>
@@ -1799,19 +1803,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1.6803999999999999E-2</v>
+        <v>7.9909999999999998E-3</v>
       </c>
       <c r="B68">
-        <v>1.6969000000000001E-2</v>
+        <v>5.4460000000000003E-3</v>
       </c>
       <c r="C68">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
         <v>11</v>
@@ -1819,79 +1823,79 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1.6878000000000001E-2</v>
+        <v>7.9959999999999996E-3</v>
       </c>
       <c r="B69">
-        <v>1.7069999999999998E-2</v>
+        <v>7.3670000000000003E-3</v>
       </c>
       <c r="C69">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1.7027E-2</v>
+        <v>8.0809999999999996E-3</v>
       </c>
       <c r="B70">
-        <v>1.7201000000000001E-2</v>
+        <v>7.4070000000000004E-3</v>
       </c>
       <c r="C70">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>64</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1.7038000000000001E-2</v>
+        <v>8.4449999999999994E-3</v>
       </c>
       <c r="B71">
-        <v>1.7215000000000001E-2</v>
+        <v>7.5389999999999997E-3</v>
       </c>
       <c r="C71">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E71">
         <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1.7072E-2</v>
+        <v>8.5170000000000003E-3</v>
       </c>
       <c r="B72">
-        <v>1.7257999999999999E-2</v>
+        <v>7.4739999999999997E-3</v>
       </c>
       <c r="C72">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
@@ -1899,590 +1903,590 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.7090999999999999E-2</v>
+        <v>8.626E-3</v>
       </c>
       <c r="B73">
-        <v>1.7274000000000001E-2</v>
+        <v>7.9150000000000002E-3</v>
       </c>
       <c r="C73">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>6.1469999999999997E-3</v>
+        <v>9.1149999999999998E-3</v>
       </c>
       <c r="B74">
-        <v>4.1370000000000001E-3</v>
+        <v>8.6239999999999997E-3</v>
       </c>
       <c r="C74">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D74" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74">
         <v>64</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>6.202E-3</v>
+        <v>9.4560000000000009E-3</v>
       </c>
       <c r="B75">
-        <v>4.3920000000000001E-3</v>
+        <v>8.9029999999999995E-3</v>
       </c>
       <c r="C75">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D75" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>6.2570000000000004E-3</v>
+        <v>9.8379999999999995E-3</v>
       </c>
       <c r="B76">
-        <v>4.2529999999999998E-3</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="C76">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D76" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>6.2589999999999998E-3</v>
+        <v>9.8930000000000008E-3</v>
       </c>
       <c r="B77">
-        <v>4.6519999999999999E-3</v>
+        <v>9.3329999999999993E-3</v>
       </c>
       <c r="C77">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D77" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>6.2789999999999999E-3</v>
+        <v>1.0442999999999999E-2</v>
       </c>
       <c r="B78">
-        <v>4.4470000000000004E-3</v>
+        <v>1.0153000000000001E-2</v>
       </c>
       <c r="C78">
         <v>1E-3</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>6.2820000000000003E-3</v>
+        <v>1.1037E-2</v>
       </c>
       <c r="B79">
-        <v>4.3489999999999996E-3</v>
+        <v>1.0744999999999999E-2</v>
       </c>
       <c r="C79">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D79" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>6.3090000000000004E-3</v>
+        <v>1.1454000000000001E-2</v>
       </c>
       <c r="B80">
-        <v>4.5259999999999996E-3</v>
+        <v>1.1206000000000001E-2</v>
       </c>
       <c r="C80">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D80" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>6.3400000000000001E-3</v>
+        <v>1.3369000000000001E-2</v>
       </c>
       <c r="B81">
-        <v>4.4860000000000004E-3</v>
+        <v>1.3594999999999999E-2</v>
       </c>
       <c r="C81">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D81" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E81">
         <v>64</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>6.3600000000000002E-3</v>
+        <v>1.3374E-2</v>
       </c>
       <c r="B82">
-        <v>4.731E-3</v>
+        <v>1.3597E-2</v>
       </c>
       <c r="C82">
         <v>1E-3</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>6.3759999999999997E-3</v>
+        <v>1.3384E-2</v>
       </c>
       <c r="B83">
-        <v>4.7999999999999996E-3</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="C83">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6.3879999999999996E-3</v>
+        <v>1.3389E-2</v>
       </c>
       <c r="B84">
-        <v>4.6610000000000002E-3</v>
+        <v>1.3612000000000001E-2</v>
       </c>
       <c r="C84">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>6.4130000000000003E-3</v>
+        <v>1.3409000000000001E-2</v>
       </c>
       <c r="B85">
-        <v>4.9899999999999996E-3</v>
+        <v>1.3610000000000001E-2</v>
       </c>
       <c r="C85">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D85" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>6.4460000000000003E-3</v>
+        <v>1.3417999999999999E-2</v>
       </c>
       <c r="B86">
-        <v>4.9849999999999998E-3</v>
+        <v>1.3624000000000001E-2</v>
       </c>
       <c r="C86">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D86" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>6.5669999999999999E-3</v>
+        <v>1.4581999999999999E-2</v>
       </c>
       <c r="B87">
-        <v>4.9940000000000002E-3</v>
+        <v>1.4807000000000001E-2</v>
       </c>
       <c r="C87">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E87">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>6.5849999999999997E-3</v>
+        <v>1.4585000000000001E-2</v>
       </c>
       <c r="B88">
-        <v>4.829E-3</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="C88">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E88">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>6.5989999999999998E-3</v>
+        <v>1.4586E-2</v>
       </c>
       <c r="B89">
-        <v>5.1440000000000001E-3</v>
+        <v>1.4803999999999999E-2</v>
       </c>
       <c r="C89">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89">
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>6.659E-3</v>
+        <v>1.4586999999999999E-2</v>
       </c>
       <c r="B90">
-        <v>5.2139999999999999E-3</v>
+        <v>1.4801999999999999E-2</v>
       </c>
       <c r="C90">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D90" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E90">
         <v>64</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>6.7790000000000003E-3</v>
+        <v>1.4588E-2</v>
       </c>
       <c r="B91">
-        <v>5.0679999999999996E-3</v>
+        <v>1.4807000000000001E-2</v>
       </c>
       <c r="C91">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E91">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>6.7809999999999997E-3</v>
+        <v>1.4592000000000001E-2</v>
       </c>
       <c r="B92">
-        <v>5.7019999999999996E-3</v>
+        <v>1.4808E-2</v>
       </c>
       <c r="C92">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E92">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>6.8669999999999998E-3</v>
+        <v>1.4597000000000001E-2</v>
       </c>
       <c r="B93">
-        <v>5.7369999999999999E-3</v>
+        <v>1.4812000000000001E-2</v>
       </c>
       <c r="C93">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D93" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93">
         <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>6.8869999999999999E-3</v>
+        <v>1.4598E-2</v>
       </c>
       <c r="B94">
-        <v>5.679E-3</v>
+        <v>1.4813E-2</v>
       </c>
       <c r="C94">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D94" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E94">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>7.143E-3</v>
+        <v>1.46E-2</v>
       </c>
       <c r="B95">
-        <v>6.3010000000000002E-3</v>
+        <v>1.4817E-2</v>
       </c>
       <c r="C95">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>7.2690000000000003E-3</v>
+        <v>1.4602E-2</v>
       </c>
       <c r="B96">
-        <v>6.3930000000000002E-3</v>
+        <v>1.4813E-2</v>
       </c>
       <c r="C96">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D96" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E96">
         <v>32</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>7.293E-3</v>
+        <v>1.4609E-2</v>
       </c>
       <c r="B97">
-        <v>6.4000000000000003E-3</v>
+        <v>1.4821000000000001E-2</v>
       </c>
       <c r="C97">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D97" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E97">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>7.6E-3</v>
+        <v>1.4624E-2</v>
       </c>
       <c r="B98">
-        <v>6.9439999999999997E-3</v>
+        <v>1.4841E-2</v>
       </c>
       <c r="C98">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D98" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E98">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>7.7099999999999998E-3</v>
+        <v>1.4642000000000001E-2</v>
       </c>
       <c r="B99">
-        <v>6.9719999999999999E-3</v>
+        <v>1.4865E-2</v>
       </c>
       <c r="C99">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D99" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E99">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>7.9959999999999996E-3</v>
+        <v>1.4643E-2</v>
       </c>
       <c r="B100">
-        <v>7.3670000000000003E-3</v>
+        <v>1.4860999999999999E-2</v>
       </c>
       <c r="C100">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E100">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1.6487999999999999E-2</v>
+        <v>1.4674E-2</v>
       </c>
       <c r="B101">
-        <v>1.6678999999999999E-2</v>
+        <v>1.4898E-2</v>
       </c>
       <c r="C101">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D101" t="s">
         <v>5</v>
       </c>
       <c r="E101">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1.7131E-2</v>
+        <v>1.4676E-2</v>
       </c>
       <c r="B102">
-        <v>1.7306999999999999E-2</v>
+        <v>1.4897000000000001E-2</v>
       </c>
       <c r="C102">
         <v>1E-3</v>
@@ -2491,38 +2495,38 @@
         <v>5</v>
       </c>
       <c r="E102">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1.7135000000000001E-2</v>
+        <v>1.5678999999999998E-2</v>
       </c>
       <c r="B103">
-        <v>1.7333999999999999E-2</v>
+        <v>1.5883999999999999E-2</v>
       </c>
       <c r="C103">
-        <v>1E-3</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="D103" t="s">
         <v>5</v>
       </c>
       <c r="E103">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1.7195999999999999E-2</v>
+        <v>1.6031E-2</v>
       </c>
       <c r="B104">
-        <v>1.7374000000000001E-2</v>
+        <v>1.6206999999999999E-2</v>
       </c>
       <c r="C104">
         <v>3.0000000000000001E-3</v>
@@ -2531,18 +2535,18 @@
         <v>5</v>
       </c>
       <c r="E104">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1.7229000000000001E-2</v>
+        <v>1.6487999999999999E-2</v>
       </c>
       <c r="B105">
-        <v>1.7399999999999999E-2</v>
+        <v>1.6678999999999999E-2</v>
       </c>
       <c r="C105">
         <v>3.0000000000000001E-3</v>
@@ -2551,7 +2555,7 @@
         <v>5</v>
       </c>
       <c r="E105">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
@@ -2559,13 +2563,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1.7531000000000001E-2</v>
+        <v>1.6528999999999999E-2</v>
       </c>
       <c r="B106">
-        <v>1.7713E-2</v>
+        <v>1.6711E-2</v>
       </c>
       <c r="C106">
-        <v>2.9999999999999997E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D106" t="s">
         <v>5</v>
@@ -2574,70 +2578,793 @@
         <v>32</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1.7662000000000001E-2</v>
+        <v>1.6722999999999998E-2</v>
       </c>
       <c r="B107">
-        <v>1.7814E-2</v>
+        <v>1.6913000000000001E-2</v>
       </c>
       <c r="C107">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D107" t="s">
         <v>5</v>
       </c>
       <c r="E107">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1.7682E-2</v>
+        <v>1.6760000000000001E-2</v>
       </c>
       <c r="B108">
-        <v>1.7843000000000001E-2</v>
+        <v>1.6945000000000002E-2</v>
       </c>
       <c r="C108">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
+        <v>1.6761000000000002E-2</v>
+      </c>
+      <c r="B109">
+        <v>1.694E-2</v>
+      </c>
+      <c r="C109">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109">
+        <v>64</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1.6761999999999999E-2</v>
+      </c>
+      <c r="B110">
+        <v>1.695E-2</v>
+      </c>
+      <c r="C110">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>64</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1.6763E-2</v>
+      </c>
+      <c r="B111">
+        <v>1.6947E-2</v>
+      </c>
+      <c r="C111">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>64</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1.6763E-2</v>
+      </c>
+      <c r="B112">
+        <v>1.6947E-2</v>
+      </c>
+      <c r="C112">
+        <v>1E-3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112">
+        <v>64</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1.6764000000000001E-2</v>
+      </c>
+      <c r="B113">
+        <v>1.6945999999999999E-2</v>
+      </c>
+      <c r="C113">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1.6764999999999999E-2</v>
+      </c>
+      <c r="B114">
+        <v>1.6947E-2</v>
+      </c>
+      <c r="C114">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>32</v>
+      </c>
+      <c r="F114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1.6764999999999999E-2</v>
+      </c>
+      <c r="B115">
+        <v>1.6951000000000001E-2</v>
+      </c>
+      <c r="C115">
+        <v>1E-3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115">
+        <v>16</v>
+      </c>
+      <c r="F115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1.6766E-2</v>
+      </c>
+      <c r="B116">
+        <v>1.6948999999999999E-2</v>
+      </c>
+      <c r="C116">
+        <v>1E-3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
+      </c>
+      <c r="E116">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1.6767000000000001E-2</v>
+      </c>
+      <c r="B117">
+        <v>1.6945000000000002E-2</v>
+      </c>
+      <c r="C117">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="E117">
+        <v>16</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1.6768000000000002E-2</v>
+      </c>
+      <c r="B118">
+        <v>1.6947E-2</v>
+      </c>
+      <c r="C118">
+        <v>1E-3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>64</v>
+      </c>
+      <c r="F118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1.6768000000000002E-2</v>
+      </c>
+      <c r="B119">
+        <v>1.6943E-2</v>
+      </c>
+      <c r="C119">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>32</v>
+      </c>
+      <c r="F119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1.6768000000000002E-2</v>
+      </c>
+      <c r="B120">
+        <v>1.6945999999999999E-2</v>
+      </c>
+      <c r="C120">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>16</v>
+      </c>
+      <c r="F120" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1.6768000000000002E-2</v>
+      </c>
+      <c r="B121">
+        <v>1.6944000000000001E-2</v>
+      </c>
+      <c r="C121">
+        <v>1E-3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>32</v>
+      </c>
+      <c r="F121" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1.6768000000000002E-2</v>
+      </c>
+      <c r="B122">
+        <v>1.6945999999999999E-2</v>
+      </c>
+      <c r="C122">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>16</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1.6768999999999999E-2</v>
+      </c>
+      <c r="B123">
+        <v>1.694E-2</v>
+      </c>
+      <c r="C123">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>16</v>
+      </c>
+      <c r="F123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1.6771000000000001E-2</v>
+      </c>
+      <c r="B124">
+        <v>1.6941000000000001E-2</v>
+      </c>
+      <c r="C124">
+        <v>1E-3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>16</v>
+      </c>
+      <c r="F124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1.6773E-2</v>
+      </c>
+      <c r="B125">
+        <v>1.6951000000000001E-2</v>
+      </c>
+      <c r="C125">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>32</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1.6773E-2</v>
+      </c>
+      <c r="B126">
+        <v>1.6945000000000002E-2</v>
+      </c>
+      <c r="C126">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>32</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1.6773E-2</v>
+      </c>
+      <c r="B127">
+        <v>1.6945999999999999E-2</v>
+      </c>
+      <c r="C127">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>32</v>
+      </c>
+      <c r="F127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1.6774000000000001E-2</v>
+      </c>
+      <c r="B128">
+        <v>1.6954E-2</v>
+      </c>
+      <c r="C128">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>16</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1.6774000000000001E-2</v>
+      </c>
+      <c r="B129">
+        <v>1.6948000000000001E-2</v>
+      </c>
+      <c r="C129">
+        <v>1E-3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129">
+        <v>32</v>
+      </c>
+      <c r="F129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1.6775000000000002E-2</v>
+      </c>
+      <c r="B130">
+        <v>1.6945999999999999E-2</v>
+      </c>
+      <c r="C130">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>16</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1.6778000000000001E-2</v>
+      </c>
+      <c r="B131">
+        <v>1.694E-2</v>
+      </c>
+      <c r="C131">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>64</v>
+      </c>
+      <c r="F131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1.6803999999999999E-2</v>
+      </c>
+      <c r="B132">
+        <v>1.6969000000000001E-2</v>
+      </c>
+      <c r="C132">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>64</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1.6878000000000001E-2</v>
+      </c>
+      <c r="B133">
+        <v>1.7069999999999998E-2</v>
+      </c>
+      <c r="C133">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>16</v>
+      </c>
+      <c r="F133" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1.7027E-2</v>
+      </c>
+      <c r="B134">
+        <v>1.7201000000000001E-2</v>
+      </c>
+      <c r="C134">
+        <v>1E-3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>64</v>
+      </c>
+      <c r="F134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1.7038000000000001E-2</v>
+      </c>
+      <c r="B135">
+        <v>1.7215000000000001E-2</v>
+      </c>
+      <c r="C135">
+        <v>1E-3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>32</v>
+      </c>
+      <c r="F135" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1.7072E-2</v>
+      </c>
+      <c r="B136">
+        <v>1.7257999999999999E-2</v>
+      </c>
+      <c r="C136">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>64</v>
+      </c>
+      <c r="F136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1.7090999999999999E-2</v>
+      </c>
+      <c r="B137">
+        <v>1.7274000000000001E-2</v>
+      </c>
+      <c r="C137">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>32</v>
+      </c>
+      <c r="F137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1.7131E-2</v>
+      </c>
+      <c r="B138">
+        <v>1.7306999999999999E-2</v>
+      </c>
+      <c r="C138">
+        <v>1E-3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>32</v>
+      </c>
+      <c r="F138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1.7135000000000001E-2</v>
+      </c>
+      <c r="B139">
+        <v>1.7333999999999999E-2</v>
+      </c>
+      <c r="C139">
+        <v>1E-3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>16</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1.7195999999999999E-2</v>
+      </c>
+      <c r="B140">
+        <v>1.7374000000000001E-2</v>
+      </c>
+      <c r="C140">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>32</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1.7229000000000001E-2</v>
+      </c>
+      <c r="B141">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="C141">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>64</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1.7531000000000001E-2</v>
+      </c>
+      <c r="B142">
+        <v>1.7713E-2</v>
+      </c>
+      <c r="C142">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>32</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1.7662000000000001E-2</v>
+      </c>
+      <c r="B143">
+        <v>1.7814E-2</v>
+      </c>
+      <c r="C143">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143">
+        <v>64</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1.7682E-2</v>
+      </c>
+      <c r="B144">
+        <v>1.7843000000000001E-2</v>
+      </c>
+      <c r="C144">
+        <v>1E-3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>64</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
         <v>1.7694999999999999E-2</v>
       </c>
-      <c r="B109">
+      <c r="B145">
         <v>1.7860999999999998E-2</v>
       </c>
-      <c r="C109">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="D109" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109">
-        <v>16</v>
-      </c>
-      <c r="F109" t="s">
+      <c r="C145">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D145" t="s">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>16</v>
+      </c>
+      <c r="F145" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F145">
+    <sortCondition ref="A2:A145"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>